--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2191.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2191.xlsx
@@ -354,7 +354,7 @@
         <v>1.97787006201021</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.905426683550798</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2191.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2191.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.077003216588509</v>
+        <v>1.011636972427368</v>
       </c>
       <c r="B1">
-        <v>1.97787006201021</v>
+        <v>1.645598530769348</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.794440269470215</v>
       </c>
       <c r="D1">
-        <v>1.905426683550798</v>
+        <v>2.687289476394653</v>
       </c>
       <c r="E1">
-        <v>0.9661208733378109</v>
+        <v>1.483729839324951</v>
       </c>
     </row>
   </sheetData>
